--- a/data/input/portfolios.xlsx
+++ b/data/input/portfolios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caolanraff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caolanraff/Documents/Development/python/git-personal/portfolio-tracker/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC795ABA-7384-2641-8392-3DC8E78D6FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCF730-FE60-C64C-9A5A-00AEA00C6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Portfolio 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Portfolio 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Portfolio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Portfolio2" sheetId="2" r:id="rId2"/>
+    <sheet name="Portfolio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -120,11 +120,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +134,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,6 +142,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -401,13 +405,13 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -435,7 +439,7 @@
         <v>375.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44927</v>
       </c>
@@ -449,7 +453,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44927</v>
       </c>
@@ -463,7 +467,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44927</v>
       </c>
@@ -477,7 +481,7 @@
         <v>84.53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44927</v>
       </c>
@@ -491,7 +495,7 @@
         <v>141.44999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44927</v>
       </c>
@@ -505,7 +509,7 @@
         <v>103.65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44927</v>
       </c>
@@ -519,7 +523,7 @@
         <v>249.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44927</v>
       </c>
@@ -533,7 +537,7 @@
         <v>58.91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44927</v>
       </c>
@@ -547,7 +551,7 @@
         <v>242.18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44927</v>
       </c>
@@ -601,7 +605,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,13 +721,13 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44927</v>
       </c>
@@ -751,7 +755,7 @@
         <v>432.22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44927</v>
       </c>
@@ -768,7 +772,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44927</v>
       </c>
@@ -785,7 +789,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44927</v>
       </c>
@@ -802,7 +806,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44927</v>
       </c>
@@ -819,7 +823,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44927</v>
       </c>
@@ -853,7 +857,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44927</v>
       </c>
@@ -870,7 +874,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44927</v>
       </c>
@@ -886,7 +890,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44927</v>
       </c>
@@ -904,7 +908,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44927</v>
       </c>
@@ -918,7 +922,7 @@
         <v>409.66</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44927</v>
       </c>
@@ -932,37 +936,37 @@
         <v>54.27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/data/input/portfolios.xlsx
+++ b/data/input/portfolios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caolanraff/Documents/Development/python/git-personal/portfolio-tracker/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caolanraff/Documents/Development/python/git-personal/etf-portfolio-tracker/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCF730-FE60-C64C-9A5A-00AEA00C6B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8BADAD-635D-FB45-8DCC-8FC1CD71777F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>date</t>
   </si>
@@ -72,9 +72,6 @@
     <t>JEPI</t>
   </si>
   <si>
-    <t>SPYW.DE</t>
-  </si>
-  <si>
     <t>CQQQ</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>VYMI</t>
-  </si>
-  <si>
-    <t>ISAG.L</t>
   </si>
   <si>
     <t>VSGX</t>
@@ -601,7 +595,9 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -652,7 +648,7 @@
         <v>44927</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>1000</v>
@@ -680,7 +676,7 @@
         <v>44927</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6">
         <v>200</v>
@@ -694,7 +690,7 @@
         <v>44927</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>100</v>
@@ -719,10 +715,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -746,7 +742,7 @@
         <v>44927</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4">
         <v>33</v>
@@ -777,7 +773,7 @@
         <v>44927</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>62</v>
@@ -811,7 +807,7 @@
         <v>44927</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>160</v>
@@ -845,13 +841,13 @@
         <v>44927</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4">
-        <v>50.6</v>
+        <v>60.59</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
@@ -862,79 +858,68 @@
         <v>44927</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="4">
-        <v>60.59</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>48.95</v>
+      </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44927</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>48.95</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+        <v>56.64</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44927</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4">
-        <v>56.64</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+        <v>409.66</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44927</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
         <v>25</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
       <c r="D12" s="4">
-        <v>409.66</v>
+        <v>54.27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44927</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4">
-        <v>54.27</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -966,17 +951,11 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
